--- a/fuentes/contenidos/grado04/guion01/SolicitudGrafica_MA_04_01_CO_REC90.xlsx
+++ b/fuentes/contenidos/grado04/guion01/SolicitudGrafica_MA_04_01_CO_REC90.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johana Montejo Rozo\Dropbox\AULA PLANETA\Temas\Tema 1\Edición\Solicitudes Graficas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Copia\JOHANNA\Documents\Documents\Matematicas\fuentes\contenidos\grado04\guion01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="157">
   <si>
     <t>Asignatura:</t>
   </si>
@@ -537,19 +537,13 @@
     <t>Conjunto U con subconjuntos R, O, E</t>
   </si>
   <si>
-    <t>(Ver recurso MA_04_01_CO_REC90, pág. 3)</t>
-  </si>
-  <si>
-    <t>(Ver recurso MA_04_01_CO_REC90, pág. 2)</t>
-  </si>
-  <si>
     <t>IMG04</t>
   </si>
   <si>
     <t>Conjuntos N, P, E entre llaves.</t>
   </si>
   <si>
-    <t>(Ver recurso MA_04_01_CO_REC90, pág. 4)</t>
+    <t>(Ver imagen en observaciones, última columna de esta tabla)</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1243,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1542,6 +1536,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1675,6 +1672,281 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3525520</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>39370</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16359188" y="1952625"/>
+          <a:ext cx="3525520" cy="960120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2627313</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>896938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3493770</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>126683</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16327438" y="2849563"/>
+          <a:ext cx="3525520" cy="960120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3509962</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1290637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16716375" y="3706812"/>
+          <a:ext cx="3152775" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>293687</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3446462</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1362075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16652875" y="5151438"/>
+          <a:ext cx="3152775" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7938</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>87312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>5326063</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>909002</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16367126" y="6675437"/>
+          <a:ext cx="5318125" cy="821690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>5318125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16359188" y="7588250"/>
+          <a:ext cx="5318125" cy="821690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -2389,9 +2661,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2406,7 +2678,7 @@
     <col min="8" max="8" width="28.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
     <col min="10" max="10" width="34.875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="29.625" style="17" customWidth="1"/>
+    <col min="11" max="11" width="72.25" style="17" customWidth="1"/>
     <col min="12" max="12" width="20.375" style="2" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" customWidth="1"/>
     <col min="14" max="16384" width="10.875" style="2"/>
@@ -2585,12 +2857,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="12" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="28" t="s">
-        <v>155</v>
+      <c r="B10" s="106" t="s">
+        <v>156</v>
       </c>
       <c r="C10" s="27" t="str">
         <f t="shared" ref="C10:C14" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -2623,13 +2895,13 @@
       </c>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" ht="41.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" s="12" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="str">
         <f t="shared" ref="A11:A22" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
       </c>
-      <c r="B11" s="28" t="s">
-        <v>155</v>
+      <c r="B11" s="106" t="s">
+        <v>156</v>
       </c>
       <c r="C11" s="27" t="str">
         <f t="shared" si="0"/>
@@ -2662,13 +2934,13 @@
       </c>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="12" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="str">
         <f t="shared" si="3"/>
         <v>IMG03</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C12" s="27" t="str">
         <f t="shared" si="0"/>
@@ -2701,12 +2973,12 @@
       </c>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="12" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="28" t="s">
         <v>156</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>154</v>
       </c>
       <c r="C13" s="27" t="str">
         <f t="shared" si="0"/>
@@ -2739,13 +3011,13 @@
       </c>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="str">
         <f t="shared" si="3"/>
         <v>IMG05</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C14" s="27" t="str">
         <f t="shared" si="0"/>
@@ -2774,17 +3046,17 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="str">
         <f t="shared" si="3"/>
         <v>IMG06</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C15" s="27" t="str">
         <f t="shared" ref="C15" si="4">IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -2813,7 +3085,7 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K15" s="20"/>
     </row>
@@ -5012,6 +5284,7 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
